--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:20:42+00:00</t>
+    <t>2022-05-23T17:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T17:22:42+00:00</t>
+    <t>2022-05-26T15:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/PharmaceuticalProduct</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/PharmaceuticalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/PharmaceuticalProduct</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/PharmaceuticalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1954,42 +1954,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="82.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="82.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.12109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.58984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="81.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6093" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6093" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/PharmaceuticalProduct</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/PharmaceuticalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T20:35:38+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,7 +274,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>MedicationKnowledge.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3247,13 +3251,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3304,7 +3308,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3319,7 +3323,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -3333,7 +3337,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3362,7 +3366,7 @@
         <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>132</v>
@@ -3403,19 +3407,19 @@
         <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3430,7 +3434,7 @@
         <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
@@ -3444,7 +3448,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3467,19 +3471,19 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -3516,17 +3520,17 @@
         <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3541,7 +3545,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3550,15 +3554,15 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>75</v>
@@ -3580,19 +3584,19 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3641,7 +3645,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3656,7 +3660,7 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3665,12 +3669,12 @@
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3693,13 +3697,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3750,7 +3754,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3765,7 +3769,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3779,7 +3783,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3808,7 +3812,7 @@
         <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>132</v>
@@ -3849,19 +3853,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3876,7 +3880,7 @@
         <v>134</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3890,7 +3894,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3916,16 +3920,16 @@
         <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3935,7 +3939,7 @@
         <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -3974,7 +3978,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3989,7 +3993,7 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -3998,12 +4002,12 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4026,16 +4030,16 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4085,7 +4089,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4100,7 +4104,7 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -4109,12 +4113,12 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4140,14 +4144,14 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -4196,7 +4200,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4211,7 +4215,7 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -4220,12 +4224,12 @@
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4248,17 +4252,17 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>75</v>
@@ -4307,7 +4311,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4322,7 +4326,7 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -4331,12 +4335,12 @@
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4359,19 +4363,19 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>75</v>
@@ -4420,7 +4424,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4435,7 +4439,7 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
@@ -4444,15 +4448,15 @@
         <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>75</v>
@@ -4474,19 +4478,19 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
@@ -4535,7 +4539,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4550,7 +4554,7 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
@@ -4559,12 +4563,12 @@
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4587,19 +4591,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -4648,7 +4652,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4663,7 +4667,7 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -4672,12 +4676,12 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4703,13 +4707,13 @@
         <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4735,13 +4739,13 @@
         <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>75</v>
@@ -4759,7 +4763,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4774,7 +4778,7 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -4788,7 +4792,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4811,13 +4815,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4868,7 +4872,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4883,21 +4887,21 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4923,13 +4927,13 @@
         <v>141</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4958,10 +4962,10 @@
         <v>145</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>75</v>
@@ -4979,7 +4983,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4994,21 +4998,21 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5031,13 +5035,13 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5088,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5103,7 +5107,7 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -5117,7 +5121,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5146,7 +5150,7 @@
         <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>132</v>
@@ -5187,19 +5191,19 @@
         <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5214,7 +5218,7 @@
         <v>134</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -5228,7 +5232,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5251,19 +5255,19 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -5300,17 +5304,17 @@
         <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5325,7 +5329,7 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -5334,15 +5338,15 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>75</v>
@@ -5364,19 +5368,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -5425,7 +5429,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5440,7 +5444,7 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -5449,12 +5453,12 @@
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5477,13 +5481,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5534,7 +5538,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5549,7 +5553,7 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -5563,7 +5567,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5592,7 +5596,7 @@
         <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>132</v>
@@ -5633,19 +5637,19 @@
         <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5660,7 +5664,7 @@
         <v>134</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5674,7 +5678,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5700,16 +5704,16 @@
         <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>75</v>
@@ -5719,7 +5723,7 @@
         <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>75</v>
@@ -5758,7 +5762,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5773,7 +5777,7 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5782,12 +5786,12 @@
         <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5810,16 +5814,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5869,7 +5873,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5884,7 +5888,7 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5893,12 +5897,12 @@
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5924,14 +5928,14 @@
         <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -5980,7 +5984,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5995,7 +5999,7 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6004,12 +6008,12 @@
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6032,17 +6036,17 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>75</v>
@@ -6091,7 +6095,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6106,7 +6110,7 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6115,12 +6119,12 @@
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6143,19 +6147,19 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -6204,7 +6208,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6219,7 +6223,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6228,15 +6232,15 @@
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -6258,19 +6262,19 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>75</v>
@@ -6319,7 +6323,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6334,7 +6338,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6343,12 +6347,12 @@
         <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6371,13 +6375,13 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6428,7 +6432,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6447,7 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6457,7 +6461,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6486,7 +6490,7 @@
         <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>132</v>
@@ -6527,19 +6531,19 @@
         <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6554,7 +6558,7 @@
         <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6568,7 +6572,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6594,16 +6598,16 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -6613,7 +6617,7 @@
         <v>75</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>75</v>
@@ -6652,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6667,7 +6671,7 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6676,12 +6680,12 @@
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6704,16 +6708,16 @@
         <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6778,7 +6782,7 @@
         <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6787,12 +6791,12 @@
         <v>75</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6818,14 +6822,14 @@
         <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>75</v>
@@ -6874,7 +6878,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6889,7 +6893,7 @@
         <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6898,12 +6902,12 @@
         <v>75</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6926,17 +6930,17 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6985,7 +6989,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7000,7 +7004,7 @@
         <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -7009,12 +7013,12 @@
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7037,19 +7041,19 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -7098,7 +7102,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7113,7 +7117,7 @@
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
@@ -7122,12 +7126,12 @@
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7150,19 +7154,19 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7211,7 +7215,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7226,7 +7230,7 @@
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
@@ -7235,12 +7239,12 @@
         <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7263,16 +7267,16 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7322,7 +7326,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7337,7 +7341,7 @@
         <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
@@ -7351,7 +7355,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7374,13 +7378,13 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7431,7 +7435,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7460,7 +7464,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7483,13 +7487,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7540,7 +7544,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7569,7 +7573,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7592,13 +7596,13 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7649,7 +7653,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7664,7 +7668,7 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7678,7 +7682,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7707,7 +7711,7 @@
         <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>132</v>
@@ -7760,7 +7764,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7775,7 +7779,7 @@
         <v>134</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7789,11 +7793,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7815,10 +7819,10 @@
         <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>132</v>
@@ -7873,7 +7877,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7902,7 +7906,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7928,10 +7932,10 @@
         <v>141</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7982,7 +7986,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>83</v>
@@ -8011,7 +8015,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8034,13 +8038,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8091,7 +8095,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8120,7 +8124,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8143,13 +8147,13 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8200,7 +8204,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8229,7 +8233,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8255,10 +8259,10 @@
         <v>141</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8309,7 +8313,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8338,7 +8342,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8361,13 +8365,13 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8418,7 +8422,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8447,7 +8451,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8470,13 +8474,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8527,7 +8531,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8542,7 +8546,7 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -8556,7 +8560,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8585,7 +8589,7 @@
         <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>132</v>
@@ -8638,7 +8642,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8653,7 +8657,7 @@
         <v>134</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8667,11 +8671,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8693,10 +8697,10 @@
         <v>129</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>132</v>
@@ -8751,7 +8755,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8780,7 +8784,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8806,10 +8810,10 @@
         <v>141</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8860,7 +8864,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8889,7 +8893,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8912,13 +8916,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8969,7 +8973,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8998,7 +9002,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9021,13 +9025,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9078,7 +9082,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9107,7 +9111,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9130,13 +9134,13 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9187,7 +9191,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9202,7 +9206,7 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
@@ -9216,7 +9220,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9245,7 +9249,7 @@
         <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>132</v>
@@ -9298,7 +9302,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9313,7 +9317,7 @@
         <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
@@ -9327,11 +9331,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9353,10 +9357,10 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>132</v>
@@ -9411,7 +9415,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9440,7 +9444,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9463,13 +9467,13 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9520,7 +9524,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9535,7 +9539,7 @@
         <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>149</v>
@@ -9544,12 +9548,12 @@
         <v>75</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9572,17 +9576,17 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -9631,7 +9635,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9646,7 +9650,7 @@
         <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9660,7 +9664,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9683,13 +9687,13 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9740,7 +9744,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9755,21 +9759,21 @@
         <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9792,13 +9796,13 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9849,7 +9853,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9878,7 +9882,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9904,10 +9908,10 @@
         <v>141</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9937,26 +9941,26 @@
         <v>145</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9985,10 +9989,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>75</v>
@@ -10013,10 +10017,10 @@
         <v>141</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10046,10 +10050,10 @@
         <v>145</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>75</v>
@@ -10067,7 +10071,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10096,7 +10100,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10119,13 +10123,13 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10176,7 +10180,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10191,7 +10195,7 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10205,7 +10209,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10234,7 +10238,7 @@
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>132</v>
@@ -10275,19 +10279,19 @@
         <v>75</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10302,7 +10306,7 @@
         <v>134</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10316,7 +10320,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10339,19 +10343,19 @@
         <v>84</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>75</v>
@@ -10400,7 +10404,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10415,7 +10419,7 @@
         <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10424,12 +10428,12 @@
         <v>75</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10452,13 +10456,13 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10509,7 +10513,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10524,7 +10528,7 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10538,7 +10542,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10567,7 +10571,7 @@
         <v>130</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>132</v>
@@ -10608,19 +10612,19 @@
         <v>75</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -10635,7 +10639,7 @@
         <v>134</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -10649,7 +10653,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10675,16 +10679,16 @@
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -10694,7 +10698,7 @@
         <v>75</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>75</v>
@@ -10733,7 +10737,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10748,7 +10752,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -10757,12 +10761,12 @@
         <v>75</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10785,16 +10789,16 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10844,7 +10848,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10859,7 +10863,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -10868,12 +10872,12 @@
         <v>75</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10899,14 +10903,14 @@
         <v>103</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -10955,7 +10959,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10970,7 +10974,7 @@
         <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
@@ -10979,12 +10983,12 @@
         <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11007,17 +11011,17 @@
         <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -11066,7 +11070,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11081,7 +11085,7 @@
         <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11090,12 +11094,12 @@
         <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11118,19 +11122,19 @@
         <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11179,7 +11183,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11194,7 +11198,7 @@
         <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11203,12 +11207,12 @@
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11231,19 +11235,19 @@
         <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -11292,7 +11296,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11307,7 +11311,7 @@
         <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>75</v>
@@ -11316,15 +11320,15 @@
         <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>75</v>
@@ -11349,10 +11353,10 @@
         <v>141</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11382,10 +11386,10 @@
         <v>145</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>75</v>
@@ -11403,7 +11407,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11432,7 +11436,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11455,13 +11459,13 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11512,7 +11516,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11527,7 +11531,7 @@
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11541,7 +11545,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11570,7 +11574,7 @@
         <v>130</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>132</v>
@@ -11611,19 +11615,19 @@
         <v>75</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11638,7 +11642,7 @@
         <v>134</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>75</v>
@@ -11652,7 +11656,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11675,19 +11679,19 @@
         <v>84</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>75</v>
@@ -11736,7 +11740,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11751,7 +11755,7 @@
         <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
@@ -11760,12 +11764,12 @@
         <v>75</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11788,13 +11792,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11845,7 +11849,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11860,7 +11864,7 @@
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>75</v>
@@ -11874,7 +11878,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11903,7 +11907,7 @@
         <v>130</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>132</v>
@@ -11944,19 +11948,19 @@
         <v>75</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11971,7 +11975,7 @@
         <v>134</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
@@ -11985,7 +11989,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12011,16 +12015,16 @@
         <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -12030,7 +12034,7 @@
         <v>75</v>
       </c>
       <c r="R91" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>75</v>
@@ -12069,7 +12073,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12084,7 +12088,7 @@
         <v>95</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>75</v>
@@ -12093,12 +12097,12 @@
         <v>75</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12121,16 +12125,16 @@
         <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12180,7 +12184,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -12195,7 +12199,7 @@
         <v>95</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -12204,12 +12208,12 @@
         <v>75</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12235,14 +12239,14 @@
         <v>103</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>75</v>
@@ -12291,7 +12295,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12306,7 +12310,7 @@
         <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -12315,12 +12319,12 @@
         <v>75</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12343,17 +12347,17 @@
         <v>84</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>75</v>
@@ -12402,7 +12406,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -12417,7 +12421,7 @@
         <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>75</v>
@@ -12426,12 +12430,12 @@
         <v>75</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12454,19 +12458,19 @@
         <v>84</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>75</v>
@@ -12515,7 +12519,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -12530,7 +12534,7 @@
         <v>95</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>75</v>
@@ -12539,12 +12543,12 @@
         <v>75</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12567,19 +12571,19 @@
         <v>84</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>75</v>
@@ -12628,7 +12632,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -12643,7 +12647,7 @@
         <v>95</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>75</v>
@@ -12652,12 +12656,12 @@
         <v>75</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12680,13 +12684,13 @@
         <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12737,7 +12741,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -12766,7 +12770,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12789,13 +12793,13 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12846,7 +12850,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>76</v>
@@ -12861,7 +12865,7 @@
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -12875,7 +12879,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12904,7 +12908,7 @@
         <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>132</v>
@@ -12957,7 +12961,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
@@ -12972,7 +12976,7 @@
         <v>134</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -12986,11 +12990,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13012,10 +13016,10 @@
         <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>132</v>
@@ -13070,7 +13074,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -13099,7 +13103,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13125,10 +13129,10 @@
         <v>141</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13179,7 +13183,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>83</v>
@@ -13208,7 +13212,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13231,13 +13235,13 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13288,7 +13292,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -13317,7 +13321,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13340,13 +13344,13 @@
         <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13397,7 +13401,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>83</v>
@@ -13426,7 +13430,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13449,13 +13453,13 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13506,7 +13510,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -13535,7 +13539,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13558,13 +13562,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13615,7 +13619,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -13630,7 +13634,7 @@
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>75</v>
@@ -13644,7 +13648,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13673,7 +13677,7 @@
         <v>130</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>132</v>
@@ -13726,7 +13730,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -13741,7 +13745,7 @@
         <v>134</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>75</v>
@@ -13755,11 +13759,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13781,10 +13785,10 @@
         <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>132</v>
@@ -13839,7 +13843,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13868,7 +13872,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13894,10 +13898,10 @@
         <v>141</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13948,7 +13952,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>76</v>
@@ -13977,7 +13981,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14000,13 +14004,13 @@
         <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14057,7 +14061,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -14086,7 +14090,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14109,13 +14113,13 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14166,7 +14170,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -14195,7 +14199,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14218,13 +14222,13 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14275,7 +14279,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -14290,7 +14294,7 @@
         <v>75</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>75</v>
@@ -14304,7 +14308,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14333,7 +14337,7 @@
         <v>130</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>132</v>
@@ -14386,7 +14390,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -14401,7 +14405,7 @@
         <v>134</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>75</v>
@@ -14415,11 +14419,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14441,10 +14445,10 @@
         <v>129</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>132</v>
@@ -14499,7 +14503,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -14528,7 +14532,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14551,13 +14555,13 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14608,7 +14612,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -14637,7 +14641,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14660,13 +14664,13 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14717,7 +14721,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -14732,7 +14736,7 @@
         <v>75</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>75</v>
@@ -14746,7 +14750,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14775,7 +14779,7 @@
         <v>130</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>132</v>
@@ -14828,7 +14832,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14843,7 +14847,7 @@
         <v>134</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>75</v>
@@ -14857,11 +14861,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14883,10 +14887,10 @@
         <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>132</v>
@@ -14941,7 +14945,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14970,7 +14974,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14996,10 +15000,10 @@
         <v>141</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15050,7 +15054,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>83</v>
@@ -15079,7 +15083,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15102,13 +15106,13 @@
         <v>75</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15159,7 +15163,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>83</v>
@@ -15188,7 +15192,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15211,13 +15215,13 @@
         <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15268,7 +15272,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -15297,7 +15301,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15320,13 +15324,13 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15377,7 +15381,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -15406,7 +15410,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15429,13 +15433,13 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15486,7 +15490,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -15501,7 +15505,7 @@
         <v>75</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>75</v>
@@ -15515,7 +15519,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15544,7 +15548,7 @@
         <v>130</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>132</v>
@@ -15597,7 +15601,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -15612,7 +15616,7 @@
         <v>134</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>75</v>
@@ -15626,11 +15630,11 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15652,10 +15656,10 @@
         <v>129</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>132</v>
@@ -15710,7 +15714,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -15739,7 +15743,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15762,13 +15766,13 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15819,7 +15823,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>83</v>
@@ -15848,7 +15852,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15871,13 +15875,13 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15928,7 +15932,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15957,7 +15961,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15980,13 +15984,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16037,7 +16041,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -16066,7 +16070,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16089,13 +16093,13 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16146,7 +16150,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -16161,7 +16165,7 @@
         <v>75</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>75</v>
@@ -16175,7 +16179,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16204,7 +16208,7 @@
         <v>130</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>132</v>
@@ -16257,7 +16261,7 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
@@ -16272,7 +16276,7 @@
         <v>134</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>75</v>
@@ -16286,11 +16290,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16312,10 +16316,10 @@
         <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>132</v>
@@ -16370,7 +16374,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>76</v>
@@ -16399,7 +16403,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16425,10 +16429,10 @@
         <v>141</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16479,7 +16483,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>83</v>
@@ -16508,7 +16512,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16534,10 +16538,10 @@
         <v>141</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16588,7 +16592,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -16617,7 +16621,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16640,13 +16644,13 @@
         <v>75</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16697,7 +16701,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -16726,7 +16730,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16749,13 +16753,13 @@
         <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16806,7 +16810,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16821,7 +16825,7 @@
         <v>75</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>75</v>
@@ -16835,7 +16839,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16864,7 +16868,7 @@
         <v>130</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>132</v>
@@ -16917,7 +16921,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16932,7 +16936,7 @@
         <v>134</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>75</v>
@@ -16946,11 +16950,11 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16972,10 +16976,10 @@
         <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>132</v>
@@ -17030,7 +17034,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -17059,7 +17063,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17085,10 +17089,10 @@
         <v>141</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17118,10 +17122,10 @@
         <v>145</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>75</v>
@@ -17139,7 +17143,7 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
@@ -17168,7 +17172,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17191,13 +17195,13 @@
         <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17248,7 +17252,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -17277,7 +17281,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17300,13 +17304,13 @@
         <v>75</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17357,7 +17361,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -17386,7 +17390,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17409,13 +17413,13 @@
         <v>75</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17466,7 +17470,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>76</v>
@@ -17481,7 +17485,7 @@
         <v>75</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>75</v>
@@ -17495,7 +17499,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17524,7 +17528,7 @@
         <v>130</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>132</v>
@@ -17577,7 +17581,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -17592,7 +17596,7 @@
         <v>134</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>75</v>
@@ -17606,11 +17610,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17632,10 +17636,10 @@
         <v>129</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>132</v>
@@ -17690,7 +17694,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -17719,7 +17723,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17745,10 +17749,10 @@
         <v>141</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17778,10 +17782,10 @@
         <v>145</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>75</v>
@@ -17799,7 +17803,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17828,7 +17832,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17851,16 +17855,16 @@
         <v>75</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17910,7 +17914,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17939,7 +17943,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17962,13 +17966,13 @@
         <v>75</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18019,7 +18023,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -18048,7 +18052,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18071,13 +18075,13 @@
         <v>75</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18128,7 +18132,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -18157,7 +18161,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18180,13 +18184,13 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18237,7 +18241,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>76</v>
@@ -18252,7 +18256,7 @@
         <v>75</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>75</v>
@@ -18266,7 +18270,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18295,7 +18299,7 @@
         <v>130</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>132</v>
@@ -18348,7 +18352,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>76</v>
@@ -18363,7 +18367,7 @@
         <v>134</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>75</v>
@@ -18377,11 +18381,11 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18403,10 +18407,10 @@
         <v>129</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>132</v>
@@ -18461,7 +18465,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
@@ -18490,7 +18494,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18513,13 +18517,13 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18570,7 +18574,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>83</v>
@@ -18599,7 +18603,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18622,13 +18626,13 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18679,7 +18683,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -18708,7 +18712,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18731,13 +18735,13 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18788,7 +18792,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18803,7 +18807,7 @@
         <v>75</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>75</v>
@@ -18817,7 +18821,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18846,7 +18850,7 @@
         <v>130</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>132</v>
@@ -18899,7 +18903,7 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>76</v>
@@ -18914,7 +18918,7 @@
         <v>134</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>75</v>
@@ -18928,11 +18932,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18954,10 +18958,10 @@
         <v>129</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>132</v>
@@ -19012,7 +19016,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>76</v>
@@ -19041,7 +19045,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19067,10 +19071,10 @@
         <v>141</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19121,7 +19125,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>83</v>
@@ -19150,7 +19154,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19173,13 +19177,13 @@
         <v>75</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19230,7 +19234,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>83</v>
@@ -19259,7 +19263,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19282,13 +19286,13 @@
         <v>75</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19339,7 +19343,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -19368,7 +19372,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19391,13 +19395,13 @@
         <v>75</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -19448,7 +19452,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -19463,7 +19467,7 @@
         <v>75</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>75</v>
@@ -19477,7 +19481,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19506,7 +19510,7 @@
         <v>130</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>132</v>
@@ -19559,7 +19563,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>76</v>
@@ -19574,7 +19578,7 @@
         <v>134</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>75</v>
@@ -19588,11 +19592,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -19614,10 +19618,10 @@
         <v>129</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M160" t="s" s="2">
         <v>132</v>
@@ -19672,7 +19676,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>76</v>
@@ -19701,7 +19705,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19727,10 +19731,10 @@
         <v>141</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19781,7 +19785,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>83</v>
@@ -19810,7 +19814,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19833,13 +19837,13 @@
         <v>75</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19890,7 +19894,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>76</v>
@@ -19919,7 +19923,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19942,13 +19946,13 @@
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -19999,7 +20003,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>76</v>
@@ -20014,7 +20018,7 @@
         <v>75</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>75</v>
@@ -20028,7 +20032,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20057,7 +20061,7 @@
         <v>130</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>132</v>
@@ -20110,7 +20114,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -20125,7 +20129,7 @@
         <v>134</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>75</v>
@@ -20139,11 +20143,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20165,10 +20169,10 @@
         <v>129</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>132</v>
@@ -20223,7 +20227,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
@@ -20252,7 +20256,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20275,13 +20279,13 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -20332,7 +20336,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>83</v>
@@ -20361,7 +20365,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20384,13 +20388,13 @@
         <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -20441,7 +20445,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -20470,7 +20474,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20493,13 +20497,13 @@
         <v>75</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20550,7 +20554,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -20579,7 +20583,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20602,13 +20606,13 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -20659,7 +20663,7 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -20674,7 +20678,7 @@
         <v>75</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>75</v>
@@ -20688,7 +20692,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20717,7 +20721,7 @@
         <v>130</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>132</v>
@@ -20770,7 +20774,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>76</v>
@@ -20785,7 +20789,7 @@
         <v>134</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>75</v>
@@ -20799,11 +20803,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -20825,10 +20829,10 @@
         <v>129</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>132</v>
@@ -20883,7 +20887,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>76</v>
@@ -20912,7 +20916,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20935,13 +20939,13 @@
         <v>75</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20992,7 +20996,7 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>76</v>
@@ -21021,7 +21025,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21044,13 +21048,13 @@
         <v>75</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -21101,7 +21105,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -21130,7 +21134,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21153,13 +21157,13 @@
         <v>75</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -21210,7 +21214,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/PharmaceuticalProduct</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/PharmaceuticalProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
